--- a/biology/Botanique/Garcinia_chromocarpa/Garcinia_chromocarpa.xlsx
+++ b/biology/Botanique/Garcinia_chromocarpa/Garcinia_chromocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Garcinia chromocarpa Engl. est une espèce de plantes à fleurs de la famille des Clusiaceae, du genre Garcinia[2], présente en Afrique centrale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Garcinia chromocarpa Engl. est une espèce de plantes à fleurs de la famille des Clusiaceae, du genre Garcinia, présente en Afrique centrale.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce présentement connue sur le nom de Garcinia quadrifaria var. chromocarpa (Engl.) Sosef &amp; Dauby (2012)[3]. En effet, Garcinia chromocarpa est une variété de Garcinia quadrifaria[4].
-Garcinia echirensis Pellegr. (1959) ; Garcinia parva Spirlet (1959), sont aussi des synonymes de cette espèce[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce présentement connue sur le nom de Garcinia quadrifaria var. chromocarpa (Engl.) Sosef &amp; Dauby (2012). En effet, Garcinia chromocarpa est une variété de Garcinia quadrifaria.
+Garcinia echirensis Pellegr. (1959) ; Garcinia parva Spirlet (1959), sont aussi des synonymes de cette espèce.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre de 15 à 25 m de haut, qu’on retrouve dans des zones de 1 à 1 000 m d’altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre de 15 à 25 m de haut, qu’on retrouve dans des zones de 1 à 1 000 m d’altitude.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est une plante native de la République démocratique du Congo[5],[6].  C’est une espèce très répandue en Afrique tropicale[3] : Burundi, Cameroun, Gabon, RD Congo, Rwanda.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une plante native de la République démocratique du Congo,.  C’est une espèce très répandue en Afrique tropicale : Burundi, Cameroun, Gabon, RD Congo, Rwanda.
 </t>
         </is>
       </c>
